--- a/output/SAFARI_10158171000105.xlsx
+++ b/output/SAFARI_10158171000105.xlsx
@@ -1967,10 +1967,10 @@
         <v>44165</v>
       </c>
       <c r="B144">
-        <v>5.4976887</v>
+        <v>5.5074182</v>
       </c>
       <c r="C144">
-        <v>0.06634416060391635</v>
+        <v>0.06794088152878852</v>
       </c>
     </row>
   </sheetData>

--- a/output/SAFARI_10158171000105.xlsx
+++ b/output/SAFARI_10158171000105.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>SAFARI FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,1591 +383,1162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C144"/>
+  <dimension ref="A1:B144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>39844</v>
       </c>
       <c r="B2">
-        <v>0.07000030000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>39872</v>
       </c>
       <c r="B3">
-        <v>0.02780319999999992</v>
-      </c>
-      <c r="C3">
         <v>-0.0394365309991036</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>39903</v>
       </c>
       <c r="B4">
-        <v>0.09255940000000007</v>
-      </c>
-      <c r="C4">
         <v>0.06300447400825382</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>39933</v>
       </c>
       <c r="B5">
-        <v>0.2574263000000001</v>
-      </c>
-      <c r="C5">
         <v>0.1508997130956908</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>39964</v>
       </c>
       <c r="B6">
-        <v>0.3417334000000001</v>
-      </c>
-      <c r="C6">
         <v>0.06704734901759246</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>39994</v>
       </c>
       <c r="B7">
-        <v>0.3443453999999999</v>
-      </c>
-      <c r="C7">
         <v>0.001946735469207095</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>40025</v>
       </c>
       <c r="B8">
-        <v>0.5496397</v>
-      </c>
-      <c r="C8">
         <v>0.1527094896891825</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>40056</v>
       </c>
       <c r="B9">
-        <v>0.6481615999999999</v>
-      </c>
-      <c r="C9">
         <v>0.0635772947737463</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>40086</v>
       </c>
       <c r="B10">
-        <v>0.8004926999999999</v>
-      </c>
-      <c r="C10">
         <v>0.09242485688296598</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>40117</v>
       </c>
       <c r="B11">
-        <v>0.7679984</v>
-      </c>
-      <c r="C11">
         <v>-0.01804744890107024</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>40147</v>
       </c>
       <c r="B12">
-        <v>0.9562055</v>
-      </c>
-      <c r="C12">
         <v>0.1064520759747294</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>40178</v>
       </c>
       <c r="B13">
-        <v>1.0936</v>
-      </c>
-      <c r="C13">
         <v>0.07023520790632665</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>40209</v>
       </c>
       <c r="B14">
-        <v>0.9884667</v>
-      </c>
-      <c r="C14">
         <v>-0.05021651700420326</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>40237</v>
       </c>
       <c r="B15">
-        <v>1.0253882</v>
-      </c>
-      <c r="C15">
         <v>0.01856782414309488</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>40268</v>
       </c>
       <c r="B16">
-        <v>1.0721418</v>
-      </c>
-      <c r="C16">
         <v>0.02308377228622138</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>40298</v>
       </c>
       <c r="B17">
-        <v>1.0598842</v>
-      </c>
-      <c r="C17">
         <v>-0.005915425286049381</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>40329</v>
       </c>
       <c r="B18">
-        <v>0.8898775999999999</v>
-      </c>
-      <c r="C18">
         <v>-0.08253211515482284</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>40359</v>
       </c>
       <c r="B19">
-        <v>0.8533986</v>
-      </c>
-      <c r="C19">
         <v>-0.0193023082553071</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>40390</v>
       </c>
       <c r="B20">
-        <v>1.1834486</v>
-      </c>
-      <c r="C20">
         <v>0.1780782612008016</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>40421</v>
       </c>
       <c r="B21">
-        <v>1.195071</v>
-      </c>
-      <c r="C21">
         <v>0.005322955621670955</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>40451</v>
       </c>
       <c r="B22">
-        <v>1.3207048</v>
-      </c>
-      <c r="C22">
         <v>0.05723450403198815</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>40482</v>
       </c>
       <c r="B23">
-        <v>1.4810861</v>
-      </c>
-      <c r="C23">
         <v>0.06910887588977288</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>40512</v>
       </c>
       <c r="B24">
-        <v>1.366233</v>
-      </c>
-      <c r="C24">
         <v>-0.04629146082435442</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>40543</v>
       </c>
       <c r="B25">
-        <v>1.4018308</v>
-      </c>
-      <c r="C25">
         <v>0.01504408061251783</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>40574</v>
       </c>
       <c r="B26">
-        <v>1.2305244</v>
-      </c>
-      <c r="C26">
         <v>-0.07132325890733004</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>40602</v>
       </c>
       <c r="B27">
-        <v>1.2952022</v>
-      </c>
-      <c r="C27">
         <v>0.02899667898723712</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>40633</v>
       </c>
       <c r="B28">
-        <v>1.2941296</v>
-      </c>
-      <c r="C28">
         <v>-0.0004673226611580095</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>40663</v>
       </c>
       <c r="B29">
-        <v>1.2018267</v>
-      </c>
-      <c r="C29">
         <v>-0.04023438780442068</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>40694</v>
       </c>
       <c r="B30">
-        <v>1.1487425</v>
-      </c>
-      <c r="C30">
         <v>-0.02410916354134496</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>40724</v>
       </c>
       <c r="B31">
-        <v>1.129349</v>
-      </c>
-      <c r="C31">
         <v>-0.009025511432849687</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>40755</v>
       </c>
       <c r="B32">
-        <v>0.9175713999999999</v>
-      </c>
-      <c r="C32">
         <v>-0.09945650055486444</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>40786</v>
       </c>
       <c r="B33">
-        <v>0.8261613000000001</v>
-      </c>
-      <c r="C33">
         <v>-0.04766972431900052</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>40816</v>
       </c>
       <c r="B34">
-        <v>0.7543746</v>
-      </c>
-      <c r="C34">
         <v>-0.03931016389406572</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>40847</v>
       </c>
       <c r="B35">
-        <v>0.8076323999999999</v>
-      </c>
-      <c r="C35">
         <v>0.03035714265357004</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>40877</v>
       </c>
       <c r="B36">
-        <v>0.7756141000000001</v>
-      </c>
-      <c r="C36">
         <v>-0.01771283807482082</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>40908</v>
       </c>
       <c r="B37">
-        <v>0.7710941</v>
-      </c>
-      <c r="C37">
         <v>-0.00254559816798039</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>40939</v>
       </c>
       <c r="B38">
-        <v>0.9093599000000001</v>
-      </c>
-      <c r="C38">
         <v>0.07806801456794421</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>40968</v>
       </c>
       <c r="B39">
-        <v>1.124853</v>
-      </c>
-      <c r="C39">
         <v>0.1128614359189171</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>40999</v>
       </c>
       <c r="B40">
-        <v>1.1910566</v>
-      </c>
-      <c r="C40">
         <v>0.03115679061092713</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>41029</v>
       </c>
       <c r="B41">
-        <v>1.1160502</v>
-      </c>
-      <c r="C41">
         <v>-0.03423298147569531</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>41060</v>
       </c>
       <c r="B42">
-        <v>1.0301127</v>
-      </c>
-      <c r="C42">
         <v>-0.04061222177054213</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>41090</v>
       </c>
       <c r="B43">
-        <v>1.0575035</v>
-      </c>
-      <c r="C43">
         <v>0.0134922558732824</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>41121</v>
       </c>
       <c r="B44">
-        <v>1.0908431</v>
-      </c>
-      <c r="C44">
         <v>0.01620390925215909</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>41152</v>
       </c>
       <c r="B45">
-        <v>1.190486</v>
-      </c>
-      <c r="C45">
         <v>0.04765680409017792</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>41182</v>
       </c>
       <c r="B46">
-        <v>1.2864182</v>
-      </c>
-      <c r="C46">
         <v>0.04379493865744855</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>41213</v>
       </c>
       <c r="B47">
-        <v>1.2849558</v>
-      </c>
-      <c r="C47">
         <v>-0.0006396030262529884</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>41243</v>
       </c>
       <c r="B48">
-        <v>1.3682963</v>
-      </c>
-      <c r="C48">
         <v>0.03647357204896462</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>41274</v>
       </c>
       <c r="B49">
-        <v>1.4918339</v>
-      </c>
-      <c r="C49">
         <v>0.05216306760264766</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>41305</v>
       </c>
       <c r="B50">
-        <v>1.5695056</v>
-      </c>
-      <c r="C50">
         <v>0.03117049655677273</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>41333</v>
       </c>
       <c r="B51">
-        <v>1.6236769</v>
-      </c>
-      <c r="C51">
         <v>0.02108238254082817</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>41364</v>
       </c>
       <c r="B52">
-        <v>1.5364554</v>
-      </c>
-      <c r="C52">
         <v>-0.03324399433482073</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>41394</v>
       </c>
       <c r="B53">
-        <v>1.5594255</v>
-      </c>
-      <c r="C53">
         <v>0.009055984189590083</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>41425</v>
       </c>
       <c r="B54">
-        <v>1.545547</v>
-      </c>
-      <c r="C54">
         <v>-0.005422505949088996</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>41455</v>
       </c>
       <c r="B55">
-        <v>1.3811641</v>
-      </c>
-      <c r="C55">
         <v>-0.06457665091235798</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>41486</v>
       </c>
       <c r="B56">
-        <v>1.3963244</v>
-      </c>
-      <c r="C56">
         <v>0.006366759854980364</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>41517</v>
       </c>
       <c r="B57">
-        <v>1.3861126</v>
-      </c>
-      <c r="C57">
         <v>-0.00426144306672338</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>41547</v>
       </c>
       <c r="B58">
-        <v>1.4378082</v>
-      </c>
-      <c r="C58">
         <v>0.02166519719144855</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>41578</v>
       </c>
       <c r="B59">
-        <v>1.5018102</v>
-      </c>
-      <c r="C59">
         <v>0.02625391119777176</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>41608</v>
       </c>
       <c r="B60">
-        <v>1.5322197</v>
-      </c>
-      <c r="C60">
         <v>0.01215499880846282</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>41639</v>
       </c>
       <c r="B61">
-        <v>1.49264</v>
-      </c>
-      <c r="C61">
         <v>-0.01563043680609544</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>41670</v>
       </c>
       <c r="B62">
-        <v>1.3333728</v>
-      </c>
-      <c r="C62">
         <v>-0.06389498684126083</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>41698</v>
       </c>
       <c r="B63">
-        <v>1.3609367</v>
-      </c>
-      <c r="C63">
         <v>0.011812900193231</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>41729</v>
       </c>
       <c r="B64">
-        <v>1.3767305</v>
-      </c>
-      <c r="C64">
         <v>0.006689632974911985</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>41759</v>
       </c>
       <c r="B65">
-        <v>1.4433163</v>
-      </c>
-      <c r="C65">
         <v>0.0280157131824581</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>41790</v>
       </c>
       <c r="B66">
-        <v>1.5127434</v>
-      </c>
-      <c r="C66">
         <v>0.02841510941501912</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>41820</v>
       </c>
       <c r="B67">
-        <v>1.5924345</v>
-      </c>
-      <c r="C67">
         <v>0.03171477835739211</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>41851</v>
       </c>
       <c r="B68">
-        <v>1.6469735</v>
-      </c>
-      <c r="C68">
         <v>0.02103775428077359</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>41882</v>
       </c>
       <c r="B69">
-        <v>1.870709</v>
-      </c>
-      <c r="C69">
         <v>0.08452502452329047</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>41912</v>
       </c>
       <c r="B70">
-        <v>1.6106219</v>
-      </c>
-      <c r="C70">
         <v>-0.09060030117995244</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>41943</v>
       </c>
       <c r="B71">
-        <v>1.5355058</v>
-      </c>
-      <c r="C71">
         <v>-0.02877325896944316</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>41973</v>
       </c>
       <c r="B72">
-        <v>1.5463219</v>
-      </c>
-      <c r="C72">
         <v>0.004265854962745452</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>42004</v>
       </c>
       <c r="B73">
-        <v>1.4583679</v>
-      </c>
-      <c r="C73">
         <v>-0.0345415872203747</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>42035</v>
       </c>
       <c r="B74">
-        <v>1.4000077</v>
-      </c>
-      <c r="C74">
         <v>-0.02373940857265489</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>42063</v>
       </c>
       <c r="B75">
-        <v>1.4317576</v>
-      </c>
-      <c r="C75">
         <v>0.01322908255669342</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>42094</v>
       </c>
       <c r="B76">
-        <v>1.4148949</v>
-      </c>
-      <c r="C76">
         <v>-0.006934367142514497</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>42124</v>
       </c>
       <c r="B77">
-        <v>1.5434999</v>
-      </c>
-      <c r="C77">
         <v>0.05325490562756996</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>42155</v>
       </c>
       <c r="B78">
-        <v>1.5528654</v>
-      </c>
-      <c r="C78">
         <v>0.003682131066724104</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>42185</v>
       </c>
       <c r="B79">
-        <v>1.5282588</v>
-      </c>
-      <c r="C79">
         <v>-0.009638816053521571</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>42216</v>
       </c>
       <c r="B80">
-        <v>1.6157861</v>
-      </c>
-      <c r="C80">
         <v>0.03461959669635073</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>42247</v>
       </c>
       <c r="B81">
-        <v>1.6879738</v>
-      </c>
-      <c r="C81">
         <v>0.02759694303750604</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>42277</v>
       </c>
       <c r="B82">
-        <v>1.6431451</v>
-      </c>
-      <c r="C82">
         <v>-0.01667750630605103</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>42308</v>
       </c>
       <c r="B83">
-        <v>1.6976471</v>
-      </c>
-      <c r="C83">
         <v>0.02062013167570731</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>42338</v>
       </c>
       <c r="B84">
-        <v>1.6598032</v>
-      </c>
-      <c r="C84">
         <v>-0.01402848430397008</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>42369</v>
       </c>
       <c r="B85">
-        <v>1.642957</v>
-      </c>
-      <c r="C85">
         <v>-0.006333626487854405</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>42400</v>
       </c>
       <c r="B86">
-        <v>1.5686899</v>
-      </c>
-      <c r="C86">
         <v>-0.02810000314042194</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>42429</v>
       </c>
       <c r="B87">
-        <v>1.5626044</v>
-      </c>
-      <c r="C87">
         <v>-0.002369106523913089</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>42460</v>
       </c>
       <c r="B88">
-        <v>1.7922168</v>
-      </c>
-      <c r="C88">
         <v>0.0896011885408452</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>42490</v>
       </c>
       <c r="B89">
-        <v>2.0003594</v>
-      </c>
-      <c r="C89">
         <v>0.0745438534715499</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>42521</v>
       </c>
       <c r="B90">
-        <v>2.0119527</v>
-      </c>
-      <c r="C90">
         <v>0.0038639704296759</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>42551</v>
       </c>
       <c r="B91">
-        <v>2.0859923</v>
-      </c>
-      <c r="C91">
         <v>0.02458192653556601</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>42582</v>
       </c>
       <c r="B92">
-        <v>2.4241957</v>
-      </c>
-      <c r="C92">
         <v>0.1095930796716504</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>42613</v>
       </c>
       <c r="B93">
-        <v>2.5565292</v>
-      </c>
-      <c r="C93">
         <v>0.03864659370958279</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>42643</v>
       </c>
       <c r="B94">
-        <v>2.5411574</v>
-      </c>
-      <c r="C94">
         <v>-0.00432213518730562</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>42674</v>
       </c>
       <c r="B95">
-        <v>2.8565696</v>
-      </c>
-      <c r="C95">
         <v>0.08907037004342144</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>42704</v>
       </c>
       <c r="B96">
-        <v>2.6990833</v>
-      </c>
-      <c r="C96">
         <v>-0.04083585059634343</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>42735</v>
       </c>
       <c r="B97">
-        <v>2.6458866</v>
-      </c>
-      <c r="C97">
         <v>-0.01438104948866659</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>42766</v>
       </c>
       <c r="B98">
-        <v>2.8077379</v>
-      </c>
-      <c r="C98">
         <v>0.04439285083633693</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>42794</v>
       </c>
       <c r="B99">
-        <v>3.0266725</v>
-      </c>
-      <c r="C99">
         <v>0.05749728730015802</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>42825</v>
       </c>
       <c r="B100">
-        <v>3.0252478</v>
-      </c>
-      <c r="C100">
         <v>-0.0003538157126015129</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>42855</v>
       </c>
       <c r="B101">
-        <v>3.1427361</v>
-      </c>
-      <c r="C101">
         <v>0.02918784279566577</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>42886</v>
       </c>
       <c r="B102">
-        <v>2.9252681</v>
-      </c>
-      <c r="C102">
         <v>-0.05249380958637451</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>42916</v>
       </c>
       <c r="B103">
-        <v>2.9105706</v>
-      </c>
-      <c r="C103">
         <v>-0.003744330228042214</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>42947</v>
       </c>
       <c r="B104">
-        <v>3.0748031</v>
-      </c>
-      <c r="C104">
         <v>0.04199706815163995</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>42978</v>
       </c>
       <c r="B105">
-        <v>3.3102857</v>
-      </c>
-      <c r="C105">
         <v>0.05778993345715278</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>43008</v>
       </c>
       <c r="B106">
-        <v>3.6037477</v>
-      </c>
-      <c r="C106">
         <v>0.06808411795069658</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>43039</v>
       </c>
       <c r="B107">
-        <v>3.6071433</v>
-      </c>
-      <c r="C107">
         <v>0.0007375729994931746</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>43069</v>
       </c>
       <c r="B108">
-        <v>3.4105886</v>
-      </c>
-      <c r="C108">
         <v>-0.04266303155797213</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>43100</v>
       </c>
       <c r="B109">
-        <v>3.659569</v>
-      </c>
-      <c r="C109">
         <v>0.05645060616172648</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>43131</v>
       </c>
       <c r="B110">
-        <v>3.9154838</v>
-      </c>
-      <c r="C110">
         <v>0.05492241879023552</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>43159</v>
       </c>
       <c r="B111">
-        <v>4.0595346</v>
-      </c>
-      <c r="C111">
         <v>0.02930551820758742</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>43190</v>
       </c>
       <c r="B112">
-        <v>4.0740827</v>
-      </c>
-      <c r="C112">
         <v>0.002875383044124158</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>43220</v>
       </c>
       <c r="B113">
-        <v>4.2863622</v>
-      </c>
-      <c r="C113">
         <v>0.041836034718157</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>43251</v>
       </c>
       <c r="B114">
-        <v>4.3360093</v>
-      </c>
-      <c r="C114">
         <v>0.009391543394434709</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>43281</v>
       </c>
       <c r="B115">
-        <v>4.3200129</v>
-      </c>
-      <c r="C115">
         <v>-0.00299782086211875</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>43312</v>
       </c>
       <c r="B116">
-        <v>4.4699129</v>
-      </c>
-      <c r="C116">
         <v>0.02817662340630789</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>43343</v>
       </c>
       <c r="B117">
-        <v>4.2450237</v>
-      </c>
-      <c r="C117">
         <v>-0.04111385393357903</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>43373</v>
       </c>
       <c r="B118">
-        <v>4.1816681</v>
-      </c>
-      <c r="C118">
         <v>-0.01207918278805864</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>43404</v>
       </c>
       <c r="B119">
-        <v>4.6356138</v>
-      </c>
-      <c r="C119">
         <v>0.08760609348946913</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>43434</v>
       </c>
       <c r="B120">
-        <v>4.7863167</v>
-      </c>
-      <c r="C120">
         <v>0.02674116881465527</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>43465</v>
       </c>
       <c r="B121">
-        <v>4.7311826</v>
-      </c>
-      <c r="C121">
         <v>-0.009528358515184632</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:2">
       <c r="A122" s="2">
         <v>43496</v>
       </c>
       <c r="B122">
-        <v>5.360923</v>
-      </c>
-      <c r="C122">
         <v>0.1098796607876356</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:2">
       <c r="A123" s="2">
         <v>43524</v>
       </c>
       <c r="B123">
-        <v>5.2533727</v>
-      </c>
-      <c r="C123">
         <v>-0.0169079707457549</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:2">
       <c r="A124" s="2">
         <v>43555</v>
       </c>
       <c r="B124">
-        <v>5.0966801</v>
-      </c>
-      <c r="C124">
         <v>-0.02505729428217185</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:2">
       <c r="A125" s="2">
         <v>43585</v>
       </c>
       <c r="B125">
-        <v>5.1981694</v>
-      </c>
-      <c r="C125">
         <v>0.01664665003499199</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:2">
       <c r="A126" s="2">
         <v>43616</v>
       </c>
       <c r="B126">
-        <v>5.4317353</v>
-      </c>
-      <c r="C126">
         <v>0.03768304557794111</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:2">
       <c r="A127" s="2">
         <v>43646</v>
       </c>
       <c r="B127">
-        <v>5.7246578</v>
-      </c>
-      <c r="C127">
         <v>0.04554330772909765</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:2">
       <c r="A128" s="2">
         <v>43677</v>
       </c>
       <c r="B128">
-        <v>6.1527779</v>
-      </c>
-      <c r="C128">
         <v>0.06366422095113888</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:2">
       <c r="A129" s="2">
         <v>43708</v>
       </c>
       <c r="B129">
-        <v>6.2896565</v>
-      </c>
-      <c r="C129">
         <v>0.01913642530407667</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:2">
       <c r="A130" s="2">
         <v>43738</v>
       </c>
       <c r="B130">
-        <v>6.3223529</v>
-      </c>
-      <c r="C130">
         <v>0.004485314225711523</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:2">
       <c r="A131" s="2">
         <v>43769</v>
       </c>
       <c r="B131">
-        <v>6.402235</v>
-      </c>
-      <c r="C131">
         <v>0.01090934855106473</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:2">
       <c r="A132" s="2">
         <v>43799</v>
       </c>
       <c r="B132">
-        <v>6.4422616</v>
-      </c>
-      <c r="C132">
         <v>0.005407366829072613</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:2">
       <c r="A133" s="2">
         <v>43830</v>
       </c>
       <c r="B133">
-        <v>7.2176531</v>
-      </c>
-      <c r="C133">
         <v>0.1041876168394833</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:2">
       <c r="A134" s="2">
         <v>43861</v>
       </c>
       <c r="B134">
-        <v>7.434631</v>
-      </c>
-      <c r="C134">
         <v>0.02640387679543199</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:2">
       <c r="A135" s="2">
         <v>43890</v>
       </c>
       <c r="B135">
-        <v>6.3539313</v>
-      </c>
-      <c r="C135">
         <v>-0.1281264942117799</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:2">
       <c r="A136" s="2">
         <v>43921</v>
       </c>
       <c r="B136">
-        <v>3.9597204</v>
-      </c>
-      <c r="C136">
         <v>-0.3255688423415106</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:2">
       <c r="A137" s="2">
         <v>43951</v>
       </c>
       <c r="B137">
-        <v>4.4541211</v>
-      </c>
-      <c r="C137">
         <v>0.09968317972117946</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:2">
       <c r="A138" s="2">
         <v>43982</v>
       </c>
       <c r="B138">
-        <v>4.7709641</v>
-      </c>
-      <c r="C138">
         <v>0.05809240282545236</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:2">
       <c r="A139" s="2">
         <v>44012</v>
       </c>
       <c r="B139">
-        <v>5.4248183</v>
-      </c>
-      <c r="C139">
         <v>0.1133006874882483</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:2">
       <c r="A140" s="2">
         <v>44043</v>
       </c>
       <c r="B140">
-        <v>6.0774931</v>
-      </c>
-      <c r="C140">
         <v>0.1015864993411564</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:2">
       <c r="A141" s="2">
         <v>44074</v>
       </c>
       <c r="B141">
-        <v>5.8841274</v>
-      </c>
-      <c r="C141">
         <v>-0.02732121349577865</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:2">
       <c r="A142" s="2">
         <v>44104</v>
       </c>
       <c r="B142">
-        <v>5.4004</v>
-      </c>
-      <c r="C142">
         <v>-0.07026706100761582</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:2">
       <c r="A143" s="2">
         <v>44135</v>
       </c>
       <c r="B143">
-        <v>5.0934255</v>
-      </c>
-      <c r="C143">
         <v>-0.04796176801449903</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:2">
       <c r="A144" s="2">
         <v>44165</v>
       </c>
       <c r="B144">
-        <v>5.5074182</v>
-      </c>
-      <c r="C144">
-        <v>0.06794088152878852</v>
+        <v>0.04216897375704343</v>
       </c>
     </row>
   </sheetData>
